--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2839666.519599811</v>
+        <v>2835414.039973187</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548847</v>
+        <v>156.6862937548843</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607324</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>177.2262711387727</v>
+        <v>157.3405342976187</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>116.3232592173519</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046872</v>
+        <v>105.0256931046871</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031477</v>
+        <v>63.69429571031459</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>53.80849853870478</v>
+        <v>43.52357554730305</v>
       </c>
       <c r="S3" t="n">
-        <v>157.8170057799449</v>
+        <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486215</v>
+        <v>197.1557544486214</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
       </c>
       <c r="V3" t="n">
-        <v>85.91866073596945</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.75546894845216</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>144.0127472368397</v>
+        <v>236.2310504757046</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>412.9169039459368</v>
+        <v>12.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>154.6528871281402</v>
+        <v>129.4794405792843</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>346.0240442480423</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0669836643703</v>
+        <v>65.52699321158141</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
@@ -1031,7 +1031,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>155.3174091611571</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>18.9268936950522</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>129.2224443473097</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>281.4525457893159</v>
       </c>
       <c r="H8" t="n">
-        <v>293.4838591870982</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>47.65883542934953</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542808</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1536,10 +1536,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>112.5284434523311</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>33.45472478220964</v>
       </c>
     </row>
     <row r="14">
@@ -1660,7 +1660,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>26.13627195705825</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>132.473663369464</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>41.74133133758713</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="24">
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>99.97427419833815</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2721,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>41.55695577161151</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,16 +2763,16 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>243.1373908222617</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>101.5168569947391</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>86.88943397770092</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>23.10998325717174</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3201,10 +3201,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>108.5813113004315</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>93.07916359105414</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>34.21058558914839</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>137.521397957954</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3751,7 +3751,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,13 +3954,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>206.5512581543057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,13 +4140,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4185,19 +4185,19 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>186.9166231085223</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>229.2938944146498</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1038.435031972305</v>
+        <v>1424.223284570549</v>
       </c>
       <c r="C2" t="n">
-        <v>1038.435031972305</v>
+        <v>1424.223284570549</v>
       </c>
       <c r="D2" t="n">
-        <v>1038.435031972305</v>
+        <v>1424.223284570549</v>
       </c>
       <c r="E2" t="n">
         <v>1038.435031972305</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826975</v>
+        <v>627.4491271826973</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237639</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237639</v>
+        <v>209.3607355237638</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710325</v>
+        <v>156.4961545710335</v>
       </c>
       <c r="K2" t="n">
-        <v>435.2148351004991</v>
+        <v>435.214835100501</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311608</v>
+        <v>833.2666318311642</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537219</v>
+        <v>1292.782497537225</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813636</v>
+        <v>1745.101812813643</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132804</v>
+        <v>2127.026478132812</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935757</v>
+        <v>2415.315960935767</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648566</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="R2" t="n">
-        <v>2491.733035309098</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="S2" t="n">
-        <v>2312.716599815388</v>
+        <v>2395.65776402472</v>
       </c>
       <c r="T2" t="n">
-        <v>2093.536568266157</v>
+        <v>2395.65776402472</v>
       </c>
       <c r="U2" t="n">
-        <v>1839.764816219679</v>
+        <v>2141.886011978242</v>
       </c>
       <c r="V2" t="n">
-        <v>1508.701928876108</v>
+        <v>1810.823124634671</v>
       </c>
       <c r="W2" t="n">
-        <v>1155.933273605994</v>
+        <v>1810.823124634671</v>
       </c>
       <c r="X2" t="n">
-        <v>1155.933273605994</v>
+        <v>1810.823124634671</v>
       </c>
       <c r="Y2" t="n">
-        <v>1038.435031972305</v>
+        <v>1810.823124634671</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.652206113561</v>
+        <v>850.6754349801846</v>
       </c>
       <c r="C3" t="n">
-        <v>814.199176832434</v>
+        <v>676.2224056990576</v>
       </c>
       <c r="D3" t="n">
-        <v>665.2647671711827</v>
+        <v>527.2879960378064</v>
       </c>
       <c r="E3" t="n">
-        <v>506.0273121657272</v>
+        <v>368.0505410323509</v>
       </c>
       <c r="F3" t="n">
-        <v>359.4927541926121</v>
+        <v>221.5159830592359</v>
       </c>
       <c r="G3" t="n">
         <v>221.5159830592359</v>
@@ -4406,55 +4406,55 @@
         <v>115.4294243676327</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687502</v>
+        <v>120.1765123687509</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270527</v>
+        <v>364.8742147270543</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066717</v>
+        <v>755.3048694066745</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633819</v>
+        <v>1262.898249633824</v>
       </c>
       <c r="N3" t="n">
-        <v>1799.633129631795</v>
+        <v>1642.492908358683</v>
       </c>
       <c r="O3" t="n">
-        <v>2224.225006908666</v>
+        <v>2067.084785635555</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153958</v>
+        <v>2390.854132153968</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648566</v>
+        <v>2554.587596648577</v>
       </c>
       <c r="R3" t="n">
-        <v>2500.235577922601</v>
+        <v>2510.624389025038</v>
       </c>
       <c r="S3" t="n">
-        <v>2340.824460973162</v>
+        <v>2351.213272075599</v>
       </c>
       <c r="T3" t="n">
-        <v>2141.677234257383</v>
+        <v>2152.06604535982</v>
       </c>
       <c r="U3" t="n">
-        <v>1913.503224828246</v>
+        <v>1923.892035930684</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.716698832317</v>
+        <v>1688.739927698941</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.479342104116</v>
+        <v>1434.502570970739</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.627841898583</v>
+        <v>1226.651070765206</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.867543133629</v>
+        <v>1018.890772000253</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.09175193297132</v>
+        <v>220.0279348608784</v>
       </c>
       <c r="C4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297132</v>
+        <v>51.09175193297154</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771854</v>
+        <v>101.0304570771861</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703257</v>
+        <v>220.4612409703271</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486078</v>
+        <v>356.7733802486098</v>
       </c>
       <c r="N4" t="n">
-        <v>495.2789379493174</v>
+        <v>495.27893794932</v>
       </c>
       <c r="O4" t="n">
-        <v>607.194942745561</v>
+        <v>607.1949427455642</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071369</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="Q4" t="n">
-        <v>645.3413034258721</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="R4" t="n">
-        <v>645.3413034258721</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="S4" t="n">
-        <v>645.3413034258721</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="T4" t="n">
-        <v>645.3413034258721</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="U4" t="n">
-        <v>645.3413034258721</v>
+        <v>679.4377367071405</v>
       </c>
       <c r="V4" t="n">
-        <v>499.8738819745188</v>
+        <v>440.8205140044086</v>
       </c>
       <c r="W4" t="n">
-        <v>499.8738819745188</v>
+        <v>440.8205140044086</v>
       </c>
       <c r="X4" t="n">
-        <v>271.8843310765014</v>
+        <v>440.8205140044086</v>
       </c>
       <c r="Y4" t="n">
-        <v>51.09175193297132</v>
+        <v>220.0279348608784</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1317.236558948563</v>
+        <v>1667.946924446815</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.236558948563</v>
+        <v>1298.984407506403</v>
       </c>
       <c r="D5" t="n">
-        <v>1317.236558948563</v>
+        <v>1298.984407506403</v>
       </c>
       <c r="E5" t="n">
-        <v>1317.236558948563</v>
+        <v>913.1961549081589</v>
       </c>
       <c r="F5" t="n">
-        <v>906.2506541589553</v>
+        <v>502.2102501185513</v>
       </c>
       <c r="G5" t="n">
         <v>489.1628723953828</v>
@@ -4567,10 +4567,10 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>239.8866855817394</v>
+        <v>72.4810365613864</v>
       </c>
       <c r="K5" t="n">
-        <v>643.3537986017849</v>
+        <v>406.840232555293</v>
       </c>
       <c r="L5" t="n">
         <v>959.6534908014922</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2406.124290896983</v>
+        <v>2431.552014683706</v>
       </c>
       <c r="T5" t="n">
-        <v>2406.124290896983</v>
+        <v>2431.552014683706</v>
       </c>
       <c r="U5" t="n">
-        <v>2406.124290896983</v>
+        <v>2431.552014683706</v>
       </c>
       <c r="V5" t="n">
-        <v>2406.124290896983</v>
+        <v>2431.552014683706</v>
       </c>
       <c r="W5" t="n">
-        <v>2053.355635626869</v>
+        <v>2431.552014683706</v>
       </c>
       <c r="X5" t="n">
-        <v>2053.355635626869</v>
+        <v>2058.086256422626</v>
       </c>
       <c r="Y5" t="n">
-        <v>1703.836399012685</v>
+        <v>1667.946924446815</v>
       </c>
     </row>
     <row r="6">
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>964.6684709946088</v>
+        <v>893.4159553857312</v>
       </c>
       <c r="C6" t="n">
-        <v>790.2154417134818</v>
+        <v>718.9629261046042</v>
       </c>
       <c r="D6" t="n">
-        <v>641.2810320522306</v>
+        <v>570.0285164433529</v>
       </c>
       <c r="E6" t="n">
-        <v>482.0435770467751</v>
+        <v>410.7910614378974</v>
       </c>
       <c r="F6" t="n">
-        <v>335.5090190736601</v>
+        <v>264.2565034647824</v>
       </c>
       <c r="G6" t="n">
         <v>198.067621432882</v>
@@ -4655,16 +4655,16 @@
         <v>1003.695982596827</v>
       </c>
       <c r="M6" t="n">
-        <v>1183.193318951432</v>
+        <v>1637.874966375866</v>
       </c>
       <c r="N6" t="n">
-        <v>1381.850060604097</v>
+        <v>2271.400447002118</v>
       </c>
       <c r="O6" t="n">
-        <v>1907.658103858851</v>
+        <v>2430.912759670879</v>
       </c>
       <c r="P6" t="n">
-        <v>2331.625872339687</v>
+        <v>2539.602387198178</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4679,19 +4679,19 @@
         <v>2194.771343825064</v>
       </c>
       <c r="U6" t="n">
-        <v>2037.885071945108</v>
+        <v>1966.63255633623</v>
       </c>
       <c r="V6" t="n">
-        <v>1802.732963713365</v>
+        <v>1731.480448104488</v>
       </c>
       <c r="W6" t="n">
-        <v>1548.495606985163</v>
+        <v>1477.243091376286</v>
       </c>
       <c r="X6" t="n">
-        <v>1340.644106779631</v>
+        <v>1269.391591170753</v>
       </c>
       <c r="Y6" t="n">
-        <v>1132.883808014677</v>
+        <v>1061.631292405799</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>648.740424053578</v>
+        <v>533.7747470923698</v>
       </c>
       <c r="C7" t="n">
-        <v>479.8042411256711</v>
+        <v>533.7747470923698</v>
       </c>
       <c r="D7" t="n">
-        <v>329.6876017133353</v>
+        <v>514.6566726529231</v>
       </c>
       <c r="E7" t="n">
-        <v>181.7745081309422</v>
+        <v>366.7435790705301</v>
       </c>
       <c r="F7" t="n">
-        <v>51.2467865680031</v>
+        <v>219.8536315726197</v>
       </c>
       <c r="G7" t="n">
         <v>51.2467865680031</v>
@@ -4764,13 +4764,13 @@
         <v>1051.181468027348</v>
       </c>
       <c r="W7" t="n">
-        <v>1051.181468027348</v>
+        <v>761.7642979903871</v>
       </c>
       <c r="X7" t="n">
-        <v>1051.181468027348</v>
+        <v>533.7747470923698</v>
       </c>
       <c r="Y7" t="n">
-        <v>830.3888888838177</v>
+        <v>533.7747470923698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1240.759433410664</v>
+        <v>1467.671350819693</v>
       </c>
       <c r="C8" t="n">
-        <v>1240.759433410664</v>
+        <v>1098.708833879281</v>
       </c>
       <c r="D8" t="n">
-        <v>1240.759433410664</v>
+        <v>1098.708833879281</v>
       </c>
       <c r="E8" t="n">
-        <v>1240.759433410664</v>
+        <v>712.9205812810367</v>
       </c>
       <c r="F8" t="n">
-        <v>829.7735286210564</v>
+        <v>705.9750805318332</v>
       </c>
       <c r="G8" t="n">
-        <v>414.0687783453452</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4804,16 +4804,16 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2000.825031735865</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="X8" t="n">
-        <v>1627.359273474786</v>
+        <v>1857.810682795504</v>
       </c>
       <c r="Y8" t="n">
-        <v>1627.359273474786</v>
+        <v>1467.671350819693</v>
       </c>
     </row>
     <row r="9">
@@ -4877,31 +4877,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>777.6069060507741</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1140.868925009994</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1528.154053606939</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>1860.224488783101</v>
       </c>
       <c r="P9" t="n">
-        <v>2224.931248730034</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
         <v>2538.001278676482</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.38702437542688</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>99.38702437542688</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>99.38702437542688</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>99.38702437542688</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>99.38702437542688</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>99.38702437542688</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4962,52 +4962,52 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>825.137147448514</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>570.4526592426272</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>281.0354892056666</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>281.0354892056666</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>281.0354892056666</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004712</v>
@@ -5029,22 +5029,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,16 +5056,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
@@ -5074,19 +5074,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>869.6905094135296</v>
+        <v>950.7540666811333</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>781.8178837532264</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5229,22 +5229,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2333.297989183966</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>2044.222762528164</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1789.538274322277</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1500.121104285317</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1272.131553387299</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y13" t="n">
-        <v>1051.338974243769</v>
+        <v>1132.402531511373</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,31 +5266,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,28 +5354,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>956.9553291057244</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258106</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V16" t="n">
-        <v>1789.822296052219</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W16" t="n">
-        <v>1500.405126015258</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1272.415575117241</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1138.603793935964</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5506,37 +5506,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797176</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,16 +5548,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5591,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>580.8993044876688</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>430.7826650753331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>282.8695714929399</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>135.9796239950296</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5673,52 +5673,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,7 +5740,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969308</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="23">
@@ -5971,16 +5971,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6129,19 +6129,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6208,43 +6208,43 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852255</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>135.7933860495997</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U28" t="n">
-        <v>2264.108249235165</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="29">
@@ -6463,13 +6463,13 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
         <v>2206.558663014778</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,7 +6502,7 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3091.514342801865</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>3091.514342801865</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>2941.39770338953</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>2793.484609807137</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>2646.594662309226</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2479.398563024106</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3414.849201738061</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y31" t="n">
-        <v>3194.056622594531</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6682,13 +6682,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6706,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3228.416786794628</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>3059.480603866722</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D34" t="n">
-        <v>2909.363964454386</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>2761.450870871993</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2614.560923374082</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2447.364824088962</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4690.833152398593</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>4471.231687421535</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>4182.156460765733</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>3927.471972559846</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>3638.054802522885</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>3410.065251624868</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>3410.065251624868</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,7 +6925,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>801.6918836311989</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C37" t="n">
-        <v>632.7557007032921</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D37" t="n">
-        <v>482.6390612909563</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E37" t="n">
-        <v>334.7259677085632</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F37" t="n">
-        <v>187.8360202106528</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2345.361232772917</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2125.759767795858</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1836.684541140056</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W37" t="n">
-        <v>1211.329899359456</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X37" t="n">
-        <v>983.3403484614387</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y37" t="n">
-        <v>983.3403484614387</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="38">
@@ -7156,37 +7156,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7256,16 +7256,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>923.4916164683283</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C40" t="n">
-        <v>754.5554335404214</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>604.4387941280856</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>456.5257005456925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X40" t="n">
-        <v>1144.284195611858</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y40" t="n">
-        <v>923.4916164683283</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="41">
@@ -7393,10 +7393,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7411,10 +7411,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>950.7540666811333</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>781.8178837532264</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1835.869149758807</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1581.18466155292</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2815.530845237133</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C46" t="n">
-        <v>2646.594662309226</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309226</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309226</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W46" t="n">
-        <v>3445.96144010892</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X46" t="n">
-        <v>3217.971889210903</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y46" t="n">
-        <v>2997.179310067373</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
   </sheetData>
@@ -8069,13 +8069,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>320.614878108081</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>159.7352724044621</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>254.3394357770851</v>
       </c>
       <c r="L5" t="n">
-        <v>178.7586225842971</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>459.2743913378117</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>439.2613524985736</v>
       </c>
       <c r="O6" t="n">
-        <v>369.9956874605992</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8537,7 +8537,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>186.449012614385</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8546,13 +8546,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039157</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>199.751631150406</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,7 +23469,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>104.8770068749571</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>185.1299285698852</v>
       </c>
     </row>
     <row r="14">
@@ -23670,7 +23670,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>86.11098998263083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>84.77391660562006</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>46.45968844823102</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24609,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>39.70888054695403</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,16 +24651,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>9.000252501566337</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.31512318719817</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>131.6952193743939</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>31.71340154579242</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25125,7 +25125,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>72.4449747012147</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>7.899650064977237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,13 +25842,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>79.63321623493849</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,13 +26028,13 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26073,19 +26073,19 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>99.26785128072183</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>57.2291039219412</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856442.5010690234</v>
+        <v>856442.5010690235</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753319.9883283915</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283913</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="C2" t="n">
+        <v>677359.460138034</v>
+      </c>
+      <c r="D2" t="n">
         <v>677359.4601380338</v>
       </c>
-      <c r="D2" t="n">
-        <v>677359.4601380342</v>
-      </c>
       <c r="E2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442547</v>
@@ -26346,16 +26346,16 @@
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442554</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.9447442552</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.944744255</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161935</v>
+        <v>548460.0746161967</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299299</v>
+        <v>225009.9816299268</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230266</v>
+        <v>291685.0095230265</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.19711258155959e-11</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.1292843793</v>
+        <v>167098.12928438</v>
       </c>
       <c r="K3" t="n">
-        <v>498.761924360738</v>
+        <v>498.7619243600357</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198073</v>
+        <v>247452.3619198064</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467443</v>
+        <v>133113.8635467444</v>
       </c>
       <c r="E4" t="n">
-        <v>7507.3684617197</v>
+        <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719709</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26453,7 +26453,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="N4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719661</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946006</v>
+        <v>80023.31371946028</v>
       </c>
       <c r="C5" t="n">
         <v>85512.93677905216</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-198576.2901174274</v>
+        <v>-198576.29011743</v>
       </c>
       <c r="C6" t="n">
-        <v>168523.9070688995</v>
+        <v>168523.9070689027</v>
       </c>
       <c r="D6" t="n">
-        <v>159622.8146284185</v>
+        <v>159622.8146284183</v>
       </c>
       <c r="E6" t="n">
-        <v>49780.6048340819</v>
+        <v>49433.22557972539</v>
       </c>
       <c r="F6" t="n">
-        <v>557266.0464586281</v>
+        <v>556918.6672042712</v>
       </c>
       <c r="G6" t="n">
-        <v>557266.0464586279</v>
+        <v>556918.6672042706</v>
       </c>
       <c r="H6" t="n">
-        <v>557266.0464586279</v>
+        <v>556918.6672042711</v>
       </c>
       <c r="I6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.6672042711</v>
       </c>
       <c r="J6" t="n">
-        <v>390167.9171742486</v>
+        <v>389820.537919891</v>
       </c>
       <c r="K6" t="n">
-        <v>556767.2845342671</v>
+        <v>556419.9052799109</v>
       </c>
       <c r="L6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.6672042711</v>
       </c>
       <c r="M6" t="n">
-        <v>424658.7527297011</v>
+        <v>424311.3734753449</v>
       </c>
       <c r="N6" t="n">
-        <v>557266.0464586284</v>
+        <v>556918.6672042711</v>
       </c>
       <c r="O6" t="n">
-        <v>557266.046458628</v>
+        <v>556918.6672042713</v>
       </c>
       <c r="P6" t="n">
-        <v>557266.0464586283</v>
+        <v>556918.6672042712</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817366</v>
+        <v>347.063405981739</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621415</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="C4" t="n">
         <v>640.5848321000387</v>
@@ -26798,7 +26798,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.0634059817366</v>
+        <v>347.063405981739</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563285</v>
+        <v>246.4126943563261</v>
       </c>
       <c r="D3" t="n">
-        <v>340.5887917794743</v>
+        <v>340.588791779474</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241344</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621415</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937897245</v>
+        <v>1.937932937894516</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621413</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937897245</v>
+        <v>1.937932937894516</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.12345599961</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621415</v>
+        <v>638.6468991621442</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937897245</v>
+        <v>1.937932937894516</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996097</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,7 +27387,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051723</v>
+        <v>325.1859052051722</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>62.22601572607265</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>19.8857368411538</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>269.9146794387016</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27472,7 +27472,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.5970034220424</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>10.28492299140141</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27517,7 +27517,7 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>146.8819264134558</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077897</v>
+        <v>136.6293971077895</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601761</v>
+        <v>49.11144063601731</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,13 +27581,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>33.7554689484518</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724864</v>
+        <v>149.1528076724862</v>
       </c>
       <c r="S4" t="n">
-        <v>213.1097037866938</v>
+        <v>213.1097037866937</v>
       </c>
       <c r="T4" t="n">
         <v>225.2714943330124</v>
@@ -27596,13 +27596,13 @@
         <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>108.1248960869883</v>
+        <v>15.90659284812338</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>25.17344654885588</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27678,13 +27678,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>40.2138944080113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>70.53999045278886</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>70.53999045278877</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>129.6885793231602</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.19860367562154</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>152.7120966692326</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,25 +27852,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>130.0951569836381</v>
       </c>
       <c r="H8" t="n">
-        <v>7.534693375307199</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,22 +28013,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59267372577932</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983999</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>6.496390726949487e-14</v>
       </c>
     </row>
     <row r="24">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.3952297727909</v>
+        <v>1.395229772790909</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059481</v>
+        <v>14.28889691059491</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552122</v>
+        <v>53.78959581552159</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284117</v>
+        <v>118.4183829284126</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106506</v>
+        <v>177.4784592106518</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697001</v>
+        <v>220.1777223697016</v>
       </c>
       <c r="M2" t="n">
-        <v>244.9901398415703</v>
+        <v>244.990139841572</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335124</v>
+        <v>248.9543364335142</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803229</v>
+        <v>235.0805203803245</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645475</v>
+        <v>200.6357853645489</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264734</v>
+        <v>150.6691191264744</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507644</v>
+        <v>87.64310221507704</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747266</v>
+        <v>31.79379844747288</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392167</v>
+        <v>6.107618330392209</v>
       </c>
       <c r="U2" t="n">
-        <v>0.111618381823272</v>
+        <v>0.1116183818232727</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682636</v>
+        <v>0.7465137411682687</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809284</v>
+        <v>7.209751131809334</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110031</v>
+        <v>25.70233714110049</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502443</v>
+        <v>70.52917762502491</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832981</v>
+        <v>120.5455982832989</v>
       </c>
       <c r="L3" t="n">
-        <v>162.0884331426969</v>
+        <v>162.088433142698</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600464</v>
+        <v>189.1495562600477</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821793</v>
+        <v>194.1557821821806</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857666</v>
+        <v>177.6146092857679</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323854</v>
+        <v>142.5513827323863</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.2918242235138</v>
+        <v>95.29182422351445</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393835</v>
+        <v>46.34933561393867</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389296</v>
+        <v>13.86616532389305</v>
       </c>
       <c r="T3" t="n">
-        <v>3.008974246200149</v>
+        <v>3.00897424620017</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949105</v>
+        <v>0.04911274612949139</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736233</v>
+        <v>0.6258520435736276</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772764</v>
+        <v>5.564393623772802</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946861</v>
+        <v>18.82107781946873</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065516</v>
+        <v>44.24773948065547</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519003</v>
+        <v>72.71262833519053</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730034</v>
+        <v>93.04713018730098</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218168</v>
+        <v>98.10515261218235</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886189</v>
+        <v>95.77243135886255</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711545</v>
+        <v>88.46134157711604</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821347</v>
+        <v>75.69395988821398</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324222</v>
+        <v>52.40657430324259</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468309</v>
+        <v>28.14058370468328</v>
       </c>
       <c r="S4" t="n">
-        <v>10.9068942502785</v>
+        <v>10.90689425027858</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269117</v>
+        <v>2.674095095269136</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492494</v>
+        <v>0.03413738419492518</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,10 +31849,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
@@ -31864,7 +31864,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,19 +32074,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>337.5641188593844</v>
       </c>
       <c r="M15" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32548,19 +32548,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -32569,10 +32569,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,13 +32803,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,13 +33022,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>305.187676947251</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33040,10 +33040,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>359.709698549663</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33745,19 +33745,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>416.4300581532626</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33976,7 +33976,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34131,7 +34131,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,13 +34225,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>164.9290651940687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935737992</v>
+        <v>106.4690935738</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368347</v>
+        <v>281.5340207368359</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501633</v>
+        <v>402.0725219501649</v>
       </c>
       <c r="M2" t="n">
-        <v>464.15744010713</v>
+        <v>464.1574401071317</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489057</v>
+        <v>456.8881972489074</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213815</v>
+        <v>385.7824902213831</v>
       </c>
       <c r="P2" t="n">
-        <v>291.2014977807606</v>
+        <v>291.201497780762</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119286</v>
+        <v>140.6784199119296</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876657</v>
+        <v>69.78258629876706</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215177</v>
+        <v>247.1693963215185</v>
       </c>
       <c r="L3" t="n">
-        <v>394.3743986662819</v>
+        <v>394.374398666283</v>
       </c>
       <c r="M3" t="n">
-        <v>512.720586088028</v>
+        <v>512.7205860880293</v>
       </c>
       <c r="N3" t="n">
-        <v>542.1564444423994</v>
+        <v>383.4289482069283</v>
       </c>
       <c r="O3" t="n">
-        <v>428.8806841180517</v>
+        <v>428.880684118053</v>
       </c>
       <c r="P3" t="n">
-        <v>168.3122477225172</v>
+        <v>327.0397439579933</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.3873378733414</v>
+        <v>165.387337873342</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930718</v>
+        <v>50.44313650930768</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476165</v>
+        <v>120.6371554476171</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740223</v>
+        <v>137.6890295740229</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380905</v>
+        <v>139.9046037380911</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911551</v>
+        <v>113.0464694911557</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310696</v>
+        <v>72.97251915310747</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.5453525391276</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>407.5425384040863</v>
+        <v>337.7365616100067</v>
       </c>
       <c r="L5" t="n">
-        <v>319.494638585563</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
         <v>188.5852654802098</v>
@@ -35023,19 +35023,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>181.3104407622271</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N6" t="n">
-        <v>200.663375406732</v>
+        <v>639.9247279053056</v>
       </c>
       <c r="O6" t="n">
-        <v>531.1192356108625</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P6" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q6" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>484.1293732522352</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q9" t="n">
-        <v>316.2323534812605</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683826</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35497,10 +35497,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,19 +35722,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>199.0097390795102</v>
       </c>
       <c r="M15" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36129,7 +36129,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36217,10 +36217,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,13 +36451,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>167.346237972892</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36688,10 +36688,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>228.3679864663297</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,13 +37311,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
         <v>696.488651224316</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37393,19 +37393,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>274.2960242312443</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,13 +37873,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>22.33282074962425</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_11_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2835414.039973187</v>
+        <v>2837174.570275973</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>240.3201516173928</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>156.6862937548843</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>62.226015726073</v>
       </c>
       <c r="S2" t="n">
-        <v>157.3405342976187</v>
+        <v>177.2262711387726</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.9882312337392</v>
       </c>
       <c r="U2" t="n">
         <v>251.2340345260132</v>
@@ -752,13 +752,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>53.40937271890671</v>
       </c>
       <c r="H3" t="n">
-        <v>105.0256931046871</v>
+        <v>105.0256931046872</v>
       </c>
       <c r="I3" t="n">
-        <v>63.69429571031459</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>43.52357554730305</v>
+        <v>53.80849853870465</v>
       </c>
       <c r="S3" t="n">
         <v>157.8170057799448</v>
       </c>
       <c r="T3" t="n">
-        <v>197.1557544486214</v>
+        <v>197.1557544486215</v>
       </c>
       <c r="U3" t="n">
         <v>225.8922693348453</v>
@@ -822,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>236.2310504757046</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>159.7662681630159</v>
       </c>
     </row>
     <row r="5">
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H5" t="n">
         <v>315.0408840752156</v>
       </c>
       <c r="I5" t="n">
-        <v>118.4960408938903</v>
+        <v>75.25296441729739</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>129.4794405792843</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>65.52699321158141</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H6" t="n">
         <v>99.90681807664345</v>
@@ -1031,7 +1031,7 @@
         <v>195.0194028815133</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8573996139459</v>
+        <v>155.3174091611585</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>18.9268936950522</v>
+        <v>137.37870414892</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,13 +1071,13 @@
         <v>166.9207765545704</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>281.4525457893159</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>98.67565404890399</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1296,13 +1296,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>239.3135884893134</v>
       </c>
       <c r="V10" t="n">
-        <v>50.98074812542808</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1536,13 +1536,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>122.4770547252865</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>33.45472478220964</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2092,7 +2092,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>55.52079624060383</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2317,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2386,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>41.55695577161151</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>86.88943397770092</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3192,19 +3192,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>23.10998325717174</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3265,16 +3265,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>34.21058558914839</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3520,7 +3520,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>173.9610973318237</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3900,16 +3900,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4039,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>143.3175246302644</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>186.9166231085223</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1424.223284570549</v>
+        <v>1508.701928876113</v>
       </c>
       <c r="C2" t="n">
-        <v>1424.223284570549</v>
+        <v>1508.701928876113</v>
       </c>
       <c r="D2" t="n">
-        <v>1424.223284570549</v>
+        <v>1265.954300979757</v>
       </c>
       <c r="E2" t="n">
-        <v>1038.435031972305</v>
+        <v>880.1660483815125</v>
       </c>
       <c r="F2" t="n">
-        <v>627.4491271826973</v>
+        <v>469.1801435919049</v>
       </c>
       <c r="G2" t="n">
-        <v>209.3607355237638</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="H2" t="n">
-        <v>209.3607355237638</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="I2" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="J2" t="n">
-        <v>156.4961545710335</v>
+        <v>156.496154571033</v>
       </c>
       <c r="K2" t="n">
-        <v>435.214835100501</v>
+        <v>435.2148351004999</v>
       </c>
       <c r="L2" t="n">
-        <v>833.2666318311642</v>
+        <v>833.2666318311622</v>
       </c>
       <c r="M2" t="n">
-        <v>1292.782497537225</v>
+        <v>1292.782497537221</v>
       </c>
       <c r="N2" t="n">
-        <v>1745.101812813643</v>
+        <v>1745.101812813639</v>
       </c>
       <c r="O2" t="n">
-        <v>2127.026478132812</v>
+        <v>2127.026478132807</v>
       </c>
       <c r="P2" t="n">
-        <v>2415.315960935767</v>
+        <v>2415.315960935761</v>
       </c>
       <c r="Q2" t="n">
-        <v>2554.587596648577</v>
+        <v>2554.587596648571</v>
       </c>
       <c r="R2" t="n">
-        <v>2554.587596648577</v>
+        <v>2491.733035309103</v>
       </c>
       <c r="S2" t="n">
-        <v>2395.65776402472</v>
+        <v>2312.716599815393</v>
       </c>
       <c r="T2" t="n">
-        <v>2395.65776402472</v>
+        <v>2093.536568266162</v>
       </c>
       <c r="U2" t="n">
-        <v>2141.886011978242</v>
+        <v>1839.764816219684</v>
       </c>
       <c r="V2" t="n">
-        <v>1810.823124634671</v>
+        <v>1508.701928876113</v>
       </c>
       <c r="W2" t="n">
-        <v>1810.823124634671</v>
+        <v>1508.701928876113</v>
       </c>
       <c r="X2" t="n">
-        <v>1810.823124634671</v>
+        <v>1508.701928876113</v>
       </c>
       <c r="Y2" t="n">
-        <v>1810.823124634671</v>
+        <v>1508.701928876113</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>850.6754349801846</v>
+        <v>840.2866238777524</v>
       </c>
       <c r="C3" t="n">
-        <v>676.2224056990576</v>
+        <v>665.8335945966254</v>
       </c>
       <c r="D3" t="n">
-        <v>527.2879960378064</v>
+        <v>516.8991849353741</v>
       </c>
       <c r="E3" t="n">
-        <v>368.0505410323509</v>
+        <v>357.6617299299186</v>
       </c>
       <c r="F3" t="n">
-        <v>221.5159830592359</v>
+        <v>211.1271719568036</v>
       </c>
       <c r="G3" t="n">
-        <v>221.5159830592359</v>
+        <v>157.1783106245746</v>
       </c>
       <c r="H3" t="n">
-        <v>115.4294243676327</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="I3" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="J3" t="n">
-        <v>120.1765123687509</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="K3" t="n">
-        <v>364.8742147270543</v>
+        <v>207.7339934539339</v>
       </c>
       <c r="L3" t="n">
-        <v>755.3048694066745</v>
+        <v>598.1646481335534</v>
       </c>
       <c r="M3" t="n">
-        <v>1262.898249633824</v>
+        <v>1105.758028360702</v>
       </c>
       <c r="N3" t="n">
-        <v>1642.492908358683</v>
+        <v>1642.492908358678</v>
       </c>
       <c r="O3" t="n">
-        <v>2067.084785635555</v>
+        <v>2067.084785635549</v>
       </c>
       <c r="P3" t="n">
-        <v>2390.854132153968</v>
+        <v>2390.854132153962</v>
       </c>
       <c r="Q3" t="n">
-        <v>2554.587596648577</v>
+        <v>2554.587596648571</v>
       </c>
       <c r="R3" t="n">
-        <v>2510.624389025038</v>
+        <v>2500.235577922606</v>
       </c>
       <c r="S3" t="n">
-        <v>2351.213272075599</v>
+        <v>2340.824460973167</v>
       </c>
       <c r="T3" t="n">
-        <v>2152.06604535982</v>
+        <v>2141.677234257388</v>
       </c>
       <c r="U3" t="n">
-        <v>1923.892035930684</v>
+        <v>1913.503224828251</v>
       </c>
       <c r="V3" t="n">
-        <v>1688.739927698941</v>
+        <v>1678.351116596509</v>
       </c>
       <c r="W3" t="n">
-        <v>1434.502570970739</v>
+        <v>1424.113759868307</v>
       </c>
       <c r="X3" t="n">
-        <v>1226.651070765206</v>
+        <v>1216.262259662774</v>
       </c>
       <c r="Y3" t="n">
-        <v>1018.890772000253</v>
+        <v>1008.50196089782</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.0279348608784</v>
+        <v>518.0576678556072</v>
       </c>
       <c r="C4" t="n">
-        <v>51.09175193297154</v>
+        <v>349.1214849277003</v>
       </c>
       <c r="D4" t="n">
-        <v>51.09175193297154</v>
+        <v>199.0048455153645</v>
       </c>
       <c r="E4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="F4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="G4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="H4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="I4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="J4" t="n">
-        <v>51.09175193297154</v>
+        <v>51.09175193297141</v>
       </c>
       <c r="K4" t="n">
-        <v>101.0304570771861</v>
+        <v>101.0304570771857</v>
       </c>
       <c r="L4" t="n">
-        <v>220.4612409703271</v>
+        <v>220.4612409703263</v>
       </c>
       <c r="M4" t="n">
-        <v>356.7733802486098</v>
+        <v>356.7733802486086</v>
       </c>
       <c r="N4" t="n">
-        <v>495.27893794932</v>
+        <v>495.2789379493184</v>
       </c>
       <c r="O4" t="n">
-        <v>607.1949427455642</v>
+        <v>607.1949427455622</v>
       </c>
       <c r="P4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="Q4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="R4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="S4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="T4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="U4" t="n">
-        <v>679.4377367071405</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="V4" t="n">
-        <v>440.8205140044086</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="W4" t="n">
-        <v>440.8205140044086</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="X4" t="n">
-        <v>440.8205140044086</v>
+        <v>679.4377367071384</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.0279348608784</v>
+        <v>518.0576678556072</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1667.946924446815</v>
+        <v>1642.519200660093</v>
       </c>
       <c r="C5" t="n">
-        <v>1298.984407506403</v>
+        <v>1273.556683719681</v>
       </c>
       <c r="D5" t="n">
-        <v>1298.984407506403</v>
+        <v>1273.556683719681</v>
       </c>
       <c r="E5" t="n">
-        <v>913.1961549081589</v>
+        <v>1273.556683719681</v>
       </c>
       <c r="F5" t="n">
-        <v>502.2102501185513</v>
+        <v>862.5707789300736</v>
       </c>
       <c r="G5" t="n">
-        <v>489.1628723953828</v>
+        <v>445.4829971665011</v>
       </c>
       <c r="H5" t="n">
-        <v>170.9397571678923</v>
+        <v>127.2598819390106</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J5" t="n">
-        <v>72.4810365613864</v>
+        <v>72.48103656138643</v>
       </c>
       <c r="K5" t="n">
-        <v>406.840232555293</v>
+        <v>475.9481495814319</v>
       </c>
       <c r="L5" t="n">
-        <v>959.6534908014922</v>
+        <v>1028.761407827631</v>
       </c>
       <c r="M5" t="n">
-        <v>1146.3529036269</v>
+        <v>1619.144189752229</v>
       </c>
       <c r="N5" t="n">
-        <v>1340.687116518882</v>
+        <v>2246.451857812075</v>
       </c>
       <c r="O5" t="n">
-        <v>1887.84832128596</v>
+        <v>2416.620883129035</v>
       </c>
       <c r="P5" t="n">
-        <v>2317.163367625254</v>
+        <v>2527.355208378561</v>
       </c>
       <c r="Q5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S5" t="n">
-        <v>2431.552014683706</v>
+        <v>2406.124290896984</v>
       </c>
       <c r="T5" t="n">
-        <v>2431.552014683706</v>
+        <v>2406.124290896984</v>
       </c>
       <c r="U5" t="n">
-        <v>2431.552014683706</v>
+        <v>2406.124290896984</v>
       </c>
       <c r="V5" t="n">
-        <v>2431.552014683706</v>
+        <v>2406.124290896984</v>
       </c>
       <c r="W5" t="n">
-        <v>2431.552014683706</v>
+        <v>2406.124290896984</v>
       </c>
       <c r="X5" t="n">
-        <v>2058.086256422626</v>
+        <v>2032.658532635905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1667.946924446815</v>
+        <v>1642.519200660093</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>893.4159553857312</v>
+        <v>964.6684709946088</v>
       </c>
       <c r="C6" t="n">
-        <v>718.9629261046042</v>
+        <v>790.2154417134818</v>
       </c>
       <c r="D6" t="n">
-        <v>570.0285164433529</v>
+        <v>641.2810320522306</v>
       </c>
       <c r="E6" t="n">
-        <v>410.7910614378974</v>
+        <v>482.0435770467751</v>
       </c>
       <c r="F6" t="n">
-        <v>264.2565034647824</v>
+        <v>335.5090190736601</v>
       </c>
       <c r="G6" t="n">
         <v>198.067621432882</v>
       </c>
       <c r="H6" t="n">
-        <v>97.15164357768661</v>
+        <v>97.15164357768664</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J6" t="n">
         <v>169.9060384248988</v>
@@ -4658,40 +4658,40 @@
         <v>1637.874966375866</v>
       </c>
       <c r="N6" t="n">
-        <v>2271.400447002118</v>
+        <v>1881.476750918157</v>
       </c>
       <c r="O6" t="n">
-        <v>2430.912759670879</v>
+        <v>2430.91275967088</v>
       </c>
       <c r="P6" t="n">
-        <v>2539.602387198178</v>
+        <v>2539.602387198179</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R6" t="n">
-        <v>2541.227428802342</v>
+        <v>2541.227428802343</v>
       </c>
       <c r="S6" t="n">
-        <v>2391.760639664977</v>
+        <v>2391.760639664978</v>
       </c>
       <c r="T6" t="n">
-        <v>2194.771343825064</v>
+        <v>2194.771343825066</v>
       </c>
       <c r="U6" t="n">
-        <v>1966.63255633623</v>
+        <v>2037.885071945108</v>
       </c>
       <c r="V6" t="n">
-        <v>1731.480448104488</v>
+        <v>1802.732963713365</v>
       </c>
       <c r="W6" t="n">
-        <v>1477.243091376286</v>
+        <v>1548.495606985163</v>
       </c>
       <c r="X6" t="n">
-        <v>1269.391591170753</v>
+        <v>1340.644106779631</v>
       </c>
       <c r="Y6" t="n">
-        <v>1061.631292405799</v>
+        <v>1132.883808014677</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.7747470923698</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="C7" t="n">
-        <v>533.7747470923698</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="D7" t="n">
-        <v>514.6566726529231</v>
+        <v>686.7859035125208</v>
       </c>
       <c r="E7" t="n">
-        <v>366.7435790705301</v>
+        <v>538.8728099301277</v>
       </c>
       <c r="F7" t="n">
-        <v>219.8536315726197</v>
+        <v>391.9828624322173</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2467865680031</v>
+        <v>223.3760174276007</v>
       </c>
       <c r="H7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736574</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>69.12137432736574</v>
       </c>
       <c r="J7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="K7" t="n">
         <v>152.2947161636129</v>
@@ -4755,22 +4755,22 @@
         <v>1051.181468027348</v>
       </c>
       <c r="T7" t="n">
-        <v>1051.181468027348</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="U7" t="n">
-        <v>1051.181468027348</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="V7" t="n">
-        <v>1051.181468027348</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="W7" t="n">
-        <v>761.7642979903871</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="X7" t="n">
-        <v>533.7747470923698</v>
+        <v>825.5522713397128</v>
       </c>
       <c r="Y7" t="n">
-        <v>533.7747470923698</v>
+        <v>825.5522713397128</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1467.671350819693</v>
+        <v>1699.061860336089</v>
       </c>
       <c r="C8" t="n">
-        <v>1098.708833879281</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="D8" t="n">
-        <v>1098.708833879281</v>
+        <v>1330.099343395678</v>
       </c>
       <c r="E8" t="n">
-        <v>712.9205812810367</v>
+        <v>944.3110907974333</v>
       </c>
       <c r="F8" t="n">
-        <v>705.9750805318332</v>
+        <v>533.3251860078258</v>
       </c>
       <c r="G8" t="n">
-        <v>421.6795797345444</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2462.666950572981</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2462.666950572981</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2462.666950572981</v>
       </c>
       <c r="W8" t="n">
-        <v>2231.276441056584</v>
+        <v>2462.666950572981</v>
       </c>
       <c r="X8" t="n">
-        <v>1857.810682795504</v>
+        <v>2089.201192311901</v>
       </c>
       <c r="Y8" t="n">
-        <v>1467.671350819693</v>
+        <v>1699.061860336089</v>
       </c>
     </row>
     <row r="9">
@@ -4865,58 +4865,58 @@
         <v>756.8511118155114</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488045</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380233</v>
       </c>
       <c r="L9" t="n">
-        <v>777.6069060507741</v>
+        <v>909.2465818694951</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.868925009994</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1528.154053606939</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>1860.224488783101</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.04689843412</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.617474780096</v>
+        <v>2426.617474780097</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610846175226</v>
+        <v>2232.610846175227</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.1026499885492</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1664670606423</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800313</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312203</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V10" t="n">
-        <v>1584.950414897297</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W10" t="n">
-        <v>1295.533244860336</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.543693962319</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7511148187889</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,7 +5056,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5129,10 +5129,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>950.7540666811333</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C13" t="n">
-        <v>781.8178837532264</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D13" t="n">
-        <v>631.7012443408906</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5226,25 +5226,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>1132.402531511373</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,19 +5266,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,10 +5287,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5311,7 +5311,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5363,13 +5363,13 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,40 +5503,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797176</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
@@ -5548,13 +5548,13 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5591,13 +5591,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5734,10 +5734,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5749,22 +5749,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5834,16 +5834,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>763.7541388327643</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>594.8179559048574</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>444.7013164925216</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>296.7882229101285</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>149.8982754122182</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>149.8982754122182</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>2227.361618603201</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1938.286391947399</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1683.601903741512</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1394.184733704551</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1166.195182806534</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>945.402603663004</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,31 +6010,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,10 +6217,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
@@ -6232,28 +6232,28 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
         <v>4405.252601474784</v>
@@ -6299,10 +6299,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>444.7013164925216</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>277.5052172074016</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>135.7933860495997</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6472,13 +6472,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6502,10 +6502,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6663,10 +6663,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611858</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6709,13 +6709,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6928,13 +6928,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6943,7 +6943,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6964,22 +6964,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>662.1522880254209</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>493.2161050975141</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2345.361232772917</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2125.759767795858</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1836.684541140056</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1582.000052934169</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1292.582882897208</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1064.593331999191</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>843.8007528556607</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7159,34 +7159,34 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>560.7825789706076</v>
+        <v>810.0653816078141</v>
       </c>
       <c r="C40" t="n">
-        <v>391.8463960427007</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2243.991523718104</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>2024.390058741045</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U40" t="n">
-        <v>1735.314832085242</v>
+        <v>1984.597634722449</v>
       </c>
       <c r="V40" t="n">
-        <v>1480.630343879355</v>
+        <v>1729.913146516562</v>
       </c>
       <c r="W40" t="n">
-        <v>1191.213173842395</v>
+        <v>1440.495976479601</v>
       </c>
       <c r="X40" t="n">
-        <v>963.2236229443774</v>
+        <v>1212.506425581584</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.4310438008473</v>
+        <v>991.7138464380538</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
         <v>261.0127623330919</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7687,10 +7687,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.58045691144</v>
+        <v>800.6374272687975</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6442739835331</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5276345711974</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>2191.112710026075</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.428221820188</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.011051783227</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.02150088521</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.22892174168</v>
+        <v>945.402603663004</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>56.30844904164206</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>175.5203270758712</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>320.614878108081</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8218,25 +8218,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>254.3394357770851</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>407.7609788880707</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8303,13 +8303,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>459.2743913378117</v>
+        <v>459.274391337812</v>
       </c>
       <c r="N6" t="n">
-        <v>439.2613524985736</v>
+        <v>45.3990332218454</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8531,13 +8531,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878354</v>
       </c>
       <c r="L9" t="n">
-        <v>186.449012614385</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23424,13 +23424,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23466,16 +23466,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>129.6605885985415</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>185.1299285698852</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>84.77391660562006</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>39.70888054695403</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24843,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>131.6952193743939</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25080,19 +25080,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.5054897610406</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>112.2233770574204</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25788,16 +25788,16 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>36.51445555167288</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>99.26785128072183</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>856442.5010690235</v>
+        <v>856442.5010690234</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>753319.9883283913</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753319.9883283912</v>
+        <v>753319.9883283911</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>753319.9883283911</v>
+        <v>753319.9883283912</v>
       </c>
     </row>
     <row r="16">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
         <v>677359.460138034</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380342</v>
       </c>
       <c r="E2" t="n">
         <v>665895.944744255</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442546</v>
+        <v>665895.9447442547</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442547</v>
@@ -26337,25 +26337,25 @@
         <v>665895.9447442548</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
         <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442546</v>
       </c>
       <c r="N2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.9447442549</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.944744255</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442549</v>
       </c>
     </row>
     <row r="3">
@@ -26365,40 +26365,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548460.0746161967</v>
+        <v>548460.0746161948</v>
       </c>
       <c r="C3" t="n">
-        <v>225009.9816299268</v>
+        <v>225009.9816299287</v>
       </c>
       <c r="D3" t="n">
-        <v>291685.0095230265</v>
+        <v>291685.0095230268</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.441624546</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>5.19711258155959e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167098.12928438</v>
+        <v>167098.1292843797</v>
       </c>
       <c r="K3" t="n">
-        <v>498.7619243600357</v>
+        <v>498.7619243605916</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289267</v>
+        <v>132607.2937289266</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>247452.3619198064</v>
+        <v>247452.3619198069</v>
       </c>
       <c r="C4" t="n">
         <v>198312.6346601523</v>
       </c>
       <c r="D4" t="n">
-        <v>133113.8635467444</v>
+        <v>133113.8635467443</v>
       </c>
       <c r="E4" t="n">
         <v>7507.368461719667</v>
@@ -26438,7 +26438,7 @@
         <v>7507.368461719667</v>
       </c>
       <c r="I4" t="n">
-        <v>7507.368461719709</v>
+        <v>7507.368461719727</v>
       </c>
       <c r="J4" t="n">
         <v>7507.368461719667</v>
@@ -26450,10 +26450,10 @@
         <v>7507.368461719667</v>
       </c>
       <c r="M4" t="n">
+        <v>7507.368461719754</v>
+      </c>
+      <c r="N4" t="n">
         <v>7507.368461719667</v>
-      </c>
-      <c r="N4" t="n">
-        <v>7507.368461719661</v>
       </c>
       <c r="O4" t="n">
         <v>7507.368461719667</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>80023.31371946028</v>
+        <v>80023.31371946016</v>
       </c>
       <c r="C5" t="n">
-        <v>85512.93677905216</v>
+        <v>85512.93677905219</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-198576.29011743</v>
+        <v>-198576.2901174282</v>
       </c>
       <c r="C6" t="n">
-        <v>168523.9070689027</v>
+        <v>168523.9070689008</v>
       </c>
       <c r="D6" t="n">
-        <v>159622.8146284183</v>
+        <v>159622.8146284184</v>
       </c>
       <c r="E6" t="n">
-        <v>49433.22557972539</v>
+        <v>49745.86690864703</v>
       </c>
       <c r="F6" t="n">
-        <v>556918.6672042712</v>
+        <v>557231.3085331923</v>
       </c>
       <c r="G6" t="n">
-        <v>556918.6672042706</v>
+        <v>557231.3085331923</v>
       </c>
       <c r="H6" t="n">
-        <v>556918.6672042711</v>
+        <v>557231.3085331923</v>
       </c>
       <c r="I6" t="n">
-        <v>556918.6672042711</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="J6" t="n">
-        <v>389820.537919891</v>
+        <v>390133.1792488129</v>
       </c>
       <c r="K6" t="n">
-        <v>556419.9052799109</v>
+        <v>556732.5466088317</v>
       </c>
       <c r="L6" t="n">
-        <v>556918.6672042711</v>
+        <v>557231.3085331924</v>
       </c>
       <c r="M6" t="n">
-        <v>424311.3734753449</v>
+        <v>424624.0148042655</v>
       </c>
       <c r="N6" t="n">
-        <v>556918.6672042711</v>
+        <v>557231.3085331927</v>
       </c>
       <c r="O6" t="n">
-        <v>556918.6672042713</v>
+        <v>557231.3085331925</v>
       </c>
       <c r="P6" t="n">
-        <v>556918.6672042712</v>
+        <v>557231.3085331924</v>
       </c>
     </row>
   </sheetData>
@@ -26706,7 +26706,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26718,7 +26718,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981739</v>
+        <v>347.0634059817376</v>
       </c>
       <c r="C3" t="n">
         <v>593.4761003380651</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26940,7 +26940,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>347.063405981739</v>
+        <v>347.0634059817376</v>
       </c>
       <c r="C3" t="n">
-        <v>246.4126943563261</v>
+        <v>246.4126943563275</v>
       </c>
       <c r="D3" t="n">
-        <v>340.588791779474</v>
+        <v>340.5887917794744</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241343</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="C4" t="n">
-        <v>1.937932937894516</v>
+        <v>1.937932937896448</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894516</v>
+        <v>1.937932937896676</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996091</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>638.6468991621442</v>
+        <v>638.6468991621426</v>
       </c>
       <c r="K4" t="n">
-        <v>1.937932937894516</v>
+        <v>1.937932937896448</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996093</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>114.3628900032902</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>325.1859052051722</v>
+        <v>325.1859052051723</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>156.6862937548846</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,13 +27426,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>62.22601572607265</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>19.8857368411538</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.9882312337392</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27472,13 +27472,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.5970034220424</v>
+        <v>83.18763070313567</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>63.6942957103147</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>10.28492299140141</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27542,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27557,10 +27557,10 @@
         <v>156.6627788836668</v>
       </c>
       <c r="I4" t="n">
-        <v>136.6293971077895</v>
+        <v>136.6293971077896</v>
       </c>
       <c r="J4" t="n">
-        <v>49.11144063601731</v>
+        <v>49.11144063601748</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>33.7554689484518</v>
+        <v>33.75546894845201</v>
       </c>
       <c r="R4" t="n">
-        <v>149.1528076724862</v>
+        <v>149.1528076724863</v>
       </c>
       <c r="S4" t="n">
         <v>213.1097037866937</v>
@@ -27596,7 +27596,7 @@
         <v>286.284891972296</v>
       </c>
       <c r="V4" t="n">
-        <v>15.90659284812338</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>58.81838518907892</v>
       </c>
     </row>
     <row r="5">
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>43.2430764765929</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>25.17344654885588</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.651863114966</v>
@@ -27709,7 +27709,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>70.53999045278886</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>70.53999045278741</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27779,7 +27779,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>129.6885793231602</v>
+        <v>11.23676886929232</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.7120966692326</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>123.266557879417</v>
       </c>
       <c r="J7" t="n">
-        <v>17.69584188176898</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>205.3658819001186</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3729047207587</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.260654658097</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27864,13 +27864,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>130.0951569836381</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,13 +27906,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>107.9825309313298</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>46.91356563188722</v>
       </c>
       <c r="V10" t="n">
-        <v>201.1568951983999</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>6.496390726949487e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>1.022838420266008e-12</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.828072647867683e-14</v>
       </c>
     </row>
     <row r="36">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.395229772790909</v>
+        <v>1.395229772790904</v>
       </c>
       <c r="H2" t="n">
-        <v>14.28889691059491</v>
+        <v>14.28889691059485</v>
       </c>
       <c r="I2" t="n">
-        <v>53.78959581552159</v>
+        <v>53.78959581552137</v>
       </c>
       <c r="J2" t="n">
-        <v>118.4183829284126</v>
+        <v>118.4183829284121</v>
       </c>
       <c r="K2" t="n">
-        <v>177.4784592106518</v>
+        <v>177.4784592106511</v>
       </c>
       <c r="L2" t="n">
-        <v>220.1777223697016</v>
+        <v>220.1777223697007</v>
       </c>
       <c r="M2" t="n">
-        <v>244.990139841572</v>
+        <v>244.9901398415709</v>
       </c>
       <c r="N2" t="n">
-        <v>248.9543364335142</v>
+        <v>248.9543364335131</v>
       </c>
       <c r="O2" t="n">
-        <v>235.0805203803245</v>
+        <v>235.0805203803235</v>
       </c>
       <c r="P2" t="n">
-        <v>200.6357853645489</v>
+        <v>200.6357853645481</v>
       </c>
       <c r="Q2" t="n">
-        <v>150.6691191264744</v>
+        <v>150.6691191264738</v>
       </c>
       <c r="R2" t="n">
-        <v>87.64310221507704</v>
+        <v>87.64310221507668</v>
       </c>
       <c r="S2" t="n">
-        <v>31.79379844747288</v>
+        <v>31.79379844747275</v>
       </c>
       <c r="T2" t="n">
-        <v>6.107618330392209</v>
+        <v>6.107618330392184</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1116183818232727</v>
+        <v>0.1116183818232723</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.7465137411682687</v>
+        <v>0.7465137411682657</v>
       </c>
       <c r="H3" t="n">
-        <v>7.209751131809334</v>
+        <v>7.209751131809305</v>
       </c>
       <c r="I3" t="n">
-        <v>25.70233714110049</v>
+        <v>25.70233714110038</v>
       </c>
       <c r="J3" t="n">
-        <v>70.52917762502491</v>
+        <v>70.52917762502463</v>
       </c>
       <c r="K3" t="n">
-        <v>120.5455982832989</v>
+        <v>120.5455982832984</v>
       </c>
       <c r="L3" t="n">
-        <v>162.088433142698</v>
+        <v>162.0884331426974</v>
       </c>
       <c r="M3" t="n">
-        <v>189.1495562600477</v>
+        <v>189.1495562600469</v>
       </c>
       <c r="N3" t="n">
-        <v>194.1557821821806</v>
+        <v>194.1557821821798</v>
       </c>
       <c r="O3" t="n">
-        <v>177.6146092857679</v>
+        <v>177.6146092857671</v>
       </c>
       <c r="P3" t="n">
-        <v>142.5513827323863</v>
+        <v>142.5513827323858</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.29182422351445</v>
+        <v>95.29182422351407</v>
       </c>
       <c r="R3" t="n">
-        <v>46.34933561393867</v>
+        <v>46.34933561393848</v>
       </c>
       <c r="S3" t="n">
-        <v>13.86616532389305</v>
+        <v>13.866165323893</v>
       </c>
       <c r="T3" t="n">
-        <v>3.00897424620017</v>
+        <v>3.008974246200157</v>
       </c>
       <c r="U3" t="n">
-        <v>0.04911274612949139</v>
+        <v>0.04911274612949119</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6258520435736276</v>
+        <v>0.625852043573625</v>
       </c>
       <c r="H4" t="n">
-        <v>5.564393623772802</v>
+        <v>5.564393623772779</v>
       </c>
       <c r="I4" t="n">
-        <v>18.82107781946873</v>
+        <v>18.82107781946866</v>
       </c>
       <c r="J4" t="n">
-        <v>44.24773948065547</v>
+        <v>44.24773948065529</v>
       </c>
       <c r="K4" t="n">
-        <v>72.71262833519053</v>
+        <v>72.71262833519025</v>
       </c>
       <c r="L4" t="n">
-        <v>93.04713018730098</v>
+        <v>93.0471301873006</v>
       </c>
       <c r="M4" t="n">
-        <v>98.10515261218235</v>
+        <v>98.10515261218195</v>
       </c>
       <c r="N4" t="n">
-        <v>95.77243135886255</v>
+        <v>95.77243135886216</v>
       </c>
       <c r="O4" t="n">
-        <v>88.46134157711604</v>
+        <v>88.46134157711569</v>
       </c>
       <c r="P4" t="n">
-        <v>75.69395988821398</v>
+        <v>75.69395988821367</v>
       </c>
       <c r="Q4" t="n">
-        <v>52.40657430324259</v>
+        <v>52.40657430324237</v>
       </c>
       <c r="R4" t="n">
-        <v>28.14058370468328</v>
+        <v>28.14058370468317</v>
       </c>
       <c r="S4" t="n">
-        <v>10.90689425027858</v>
+        <v>10.90689425027854</v>
       </c>
       <c r="T4" t="n">
-        <v>2.674095095269136</v>
+        <v>2.674095095269124</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03413738419492518</v>
+        <v>0.03413738419492504</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,25 +31679,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>338.1920576279222</v>
+        <v>414.6448185524877</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32083,7 +32083,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>337.5641188593844</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32566,7 +32566,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>106.4690935738</v>
+        <v>106.4690935737996</v>
       </c>
       <c r="K2" t="n">
-        <v>281.5340207368359</v>
+        <v>281.5340207368353</v>
       </c>
       <c r="L2" t="n">
-        <v>402.0725219501649</v>
+        <v>402.0725219501639</v>
       </c>
       <c r="M2" t="n">
-        <v>464.1574401071317</v>
+        <v>464.1574401071307</v>
       </c>
       <c r="N2" t="n">
-        <v>456.8881972489074</v>
+        <v>456.8881972489064</v>
       </c>
       <c r="O2" t="n">
-        <v>385.7824902213831</v>
+        <v>385.7824902213822</v>
       </c>
       <c r="P2" t="n">
-        <v>291.201497780762</v>
+        <v>291.2014977807612</v>
       </c>
       <c r="Q2" t="n">
-        <v>140.6784199119296</v>
+        <v>140.678419911929</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>69.78258629876706</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>247.1693963215185</v>
+        <v>158.2244863848106</v>
       </c>
       <c r="L3" t="n">
-        <v>394.374398666283</v>
+        <v>394.3743986662823</v>
       </c>
       <c r="M3" t="n">
-        <v>512.7205860880293</v>
+        <v>512.7205860880285</v>
       </c>
       <c r="N3" t="n">
-        <v>383.4289482069283</v>
+        <v>542.1564444424</v>
       </c>
       <c r="O3" t="n">
-        <v>428.880684118053</v>
+        <v>428.8806841180522</v>
       </c>
       <c r="P3" t="n">
-        <v>327.0397439579933</v>
+        <v>327.0397439579927</v>
       </c>
       <c r="Q3" t="n">
-        <v>165.387337873342</v>
+        <v>165.3873378733417</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>50.44313650930768</v>
+        <v>50.44313650930739</v>
       </c>
       <c r="L4" t="n">
-        <v>120.6371554476171</v>
+        <v>120.6371554476167</v>
       </c>
       <c r="M4" t="n">
-        <v>137.6890295740229</v>
+        <v>137.6890295740225</v>
       </c>
       <c r="N4" t="n">
-        <v>139.9046037380911</v>
+        <v>139.9046037380908</v>
       </c>
       <c r="O4" t="n">
-        <v>113.0464694911557</v>
+        <v>113.0464694911554</v>
       </c>
       <c r="P4" t="n">
-        <v>72.97251915310747</v>
+        <v>72.97251915310716</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34938,25 +34938,25 @@
         <v>21.44873736705384</v>
       </c>
       <c r="K5" t="n">
-        <v>337.7365616100067</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L5" t="n">
         <v>558.3972305517163</v>
       </c>
       <c r="M5" t="n">
-        <v>188.5852654802098</v>
+        <v>596.3462443682804</v>
       </c>
       <c r="N5" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O5" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P5" t="n">
-        <v>433.6515619588832</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q5" t="n">
-        <v>247.6524856312129</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35023,13 +35023,13 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M6" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="N6" t="n">
-        <v>639.9247279053056</v>
+        <v>246.0624086285774</v>
       </c>
       <c r="O6" t="n">
-        <v>161.1235481502633</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P6" t="n">
         <v>109.7875025528271</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313203</v>
       </c>
       <c r="L9" t="n">
-        <v>484.1293732522352</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634694</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35433,7 +35433,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35497,13 +35497,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>196.0580237059039</v>
+        <v>272.5107846304694</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35731,7 +35731,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>199.0097390795102</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36202,7 +36202,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36214,7 +36214,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36609,7 +36609,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243153</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
@@ -37311,7 +37311,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37800,10 +37800,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38037,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
